--- a/bulletin/macroeconomics/static/macroeconomics/tables/pmi_by_country.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/pmi_by_country.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5885F83-C87E-467E-B86F-DE4376385039}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0BFECB-C289-4B57-AF48-51F9E78E9031}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,8 +133,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -418,26 +421,41 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:S14"/>
+      <selection activeCell="O1" sqref="O1:S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
         <v>2021</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2022</v>
       </c>
-      <c r="O1">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1">
         <v>2023</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -493,7 +511,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -552,7 +570,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -611,7 +629,7 @@
         <v>54.4</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -670,7 +688,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -729,7 +747,7 @@
         <v>54.3</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -788,7 +806,7 @@
         <v>52.3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -847,7 +865,7 @@
         <v>55.6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -906,7 +924,7 @@
         <v>61.6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -965,7 +983,7 @@
         <v>53.1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1024,7 +1042,7 @@
         <v>52.8</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1101,7 @@
         <v>53.9</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>51.2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1202,6 +1220,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:N1"/>
+    <mergeCell ref="O1:S1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
